--- a/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_EXPORT_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_EXPORT_AR2_50_9.xlsx
@@ -535,7 +535,7 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR2">
         <v>0.9748449066617448</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR3">
         <v>0.7433456476287529</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR4">
         <v>0.6137234450023074</v>
@@ -640,7 +640,7 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR5">
         <v>0.7006850147984314</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR6">
         <v>0.6987924154517784</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR7">
         <v>0.6821642874300602</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR8">
         <v>0.6878114240115052</v>
@@ -780,7 +780,7 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR9">
         <v>0.6893151634818988</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR10">
         <v>0.6877196108525677</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>25569</v>
+        <v>25614</v>
       </c>
       <c r="AR11">
         <v>0.6879275937719207</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>40269</v>
+        <v>40313</v>
       </c>
       <c r="G12">
         <v>1.543216876039161</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>40360</v>
+        <v>40405</v>
       </c>
       <c r="G13">
         <v>0.8904929523772389</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>40452</v>
+        <v>40497</v>
       </c>
       <c r="G14">
         <v>0.6895787056683169</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>40544</v>
+        <v>40589</v>
       </c>
       <c r="G15">
         <v>0.6786471657223756</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>40634</v>
+        <v>40678</v>
       </c>
       <c r="G16">
         <v>0.7039774208181476</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>40725</v>
+        <v>40770</v>
       </c>
       <c r="G17">
         <v>0.7199676075493491</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>40817</v>
+        <v>40862</v>
       </c>
       <c r="G18">
         <v>0.7250097807560448</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>40909</v>
+        <v>40954</v>
       </c>
       <c r="G19">
         <v>0.7253453540459684</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>41000</v>
+        <v>41044</v>
       </c>
       <c r="G20">
         <v>0.7247441751549212</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>41091</v>
+        <v>41136</v>
       </c>
       <c r="G21">
         <v>0.7243527375643217</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>41183</v>
+        <v>41228</v>
       </c>
       <c r="H22">
         <v>1.100273742131594</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>41275</v>
+        <v>41320</v>
       </c>
       <c r="H23">
         <v>1.100192394518002</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>41365</v>
+        <v>41409</v>
       </c>
       <c r="I24">
         <v>1.186408321525793</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>41456</v>
+        <v>41501</v>
       </c>
       <c r="I25">
         <v>1.186444417984203</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>41548</v>
+        <v>41593</v>
       </c>
       <c r="J26">
         <v>1.239820926197211</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>41640</v>
+        <v>41685</v>
       </c>
       <c r="J27">
         <v>1.239744420263246</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>41730</v>
+        <v>41774</v>
       </c>
       <c r="K28">
         <v>1.16869136286045</v>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="1">
-        <v>41821</v>
+        <v>41866</v>
       </c>
       <c r="K29">
         <v>1.168701392221769</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="1">
-        <v>41913</v>
+        <v>41958</v>
       </c>
       <c r="L30">
         <v>1.144177042978285</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="1">
-        <v>42005</v>
+        <v>42050</v>
       </c>
       <c r="L31">
         <v>1.144170978319917</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="1">
-        <v>42095</v>
+        <v>42139</v>
       </c>
       <c r="M32">
         <v>0.9036780203503472</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="33" spans="1:28">
       <c r="A33" s="1">
-        <v>42186</v>
+        <v>42231</v>
       </c>
       <c r="M33">
         <v>0.903755272485232</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="34" spans="1:28">
       <c r="A34" s="1">
-        <v>42278</v>
+        <v>42323</v>
       </c>
       <c r="N34">
         <v>0.9152496509330278</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="35" spans="1:28">
       <c r="A35" s="1">
-        <v>42370</v>
+        <v>42415</v>
       </c>
       <c r="N35">
         <v>0.9152325481823219</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="36" spans="1:28">
       <c r="A36" s="1">
-        <v>42461</v>
+        <v>42505</v>
       </c>
       <c r="O36">
         <v>0.9458372266711378</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="37" spans="1:28">
       <c r="A37" s="1">
-        <v>42552</v>
+        <v>42597</v>
       </c>
       <c r="O37">
         <v>0.945847500708929</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="38" spans="1:28">
       <c r="A38" s="1">
-        <v>42644</v>
+        <v>42689</v>
       </c>
       <c r="P38">
         <v>1.007593786758417</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="39" spans="1:28">
       <c r="A39" s="1">
-        <v>42736</v>
+        <v>42781</v>
       </c>
       <c r="P39">
         <v>1.007600828485196</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="40" spans="1:28">
       <c r="A40" s="1">
-        <v>42826</v>
+        <v>42870</v>
       </c>
       <c r="Q40">
         <v>0.9701636480847426</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="41" spans="1:28">
       <c r="A41" s="1">
-        <v>42917</v>
+        <v>42962</v>
       </c>
       <c r="Q41">
         <v>0.9701634316900356</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="42" spans="1:28">
       <c r="A42" s="1">
-        <v>43009</v>
+        <v>43054</v>
       </c>
       <c r="R42">
         <v>0.9833516376592453</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="43" spans="1:28">
       <c r="A43" s="1">
-        <v>43101</v>
+        <v>43146</v>
       </c>
       <c r="R43">
         <v>0.9833459813831036</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="44" spans="1:28">
       <c r="A44" s="1">
-        <v>43191</v>
+        <v>43235</v>
       </c>
       <c r="S44">
         <v>0.9672919173190467</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="45" spans="1:28">
       <c r="A45" s="1">
-        <v>43282</v>
+        <v>43327</v>
       </c>
       <c r="S45">
         <v>0.9672956241654362</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="46" spans="1:28">
       <c r="A46" s="1">
-        <v>43374</v>
+        <v>43419</v>
       </c>
       <c r="T46">
         <v>0.9017541344705338</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="47" spans="1:28">
       <c r="A47" s="1">
-        <v>43466</v>
+        <v>43511</v>
       </c>
       <c r="T47">
         <v>0.9017411914056261</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="48" spans="1:28">
       <c r="A48" s="1">
-        <v>43556</v>
+        <v>43600</v>
       </c>
       <c r="U48">
         <v>0.9524916752890767</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="49" spans="1:43">
       <c r="A49" s="1">
-        <v>43647</v>
+        <v>43692</v>
       </c>
       <c r="U49">
         <v>0.952493029747811</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="50" spans="1:43">
       <c r="A50" s="1">
-        <v>43739</v>
+        <v>43784</v>
       </c>
       <c r="V50">
         <v>0.9433647667357222</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="51" spans="1:43">
       <c r="A51" s="1">
-        <v>43831</v>
+        <v>43876</v>
       </c>
       <c r="V51">
         <v>0.9433698350476617</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="52" spans="1:43">
       <c r="A52" s="1">
-        <v>43922</v>
+        <v>43966</v>
       </c>
       <c r="W52">
         <v>1.013151043551174</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="53" spans="1:43">
       <c r="A53" s="1">
-        <v>44013</v>
+        <v>44058</v>
       </c>
       <c r="X53">
         <v>0.8131901472341392</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="54" spans="1:43">
       <c r="A54" s="1">
-        <v>44105</v>
+        <v>44150</v>
       </c>
       <c r="Y54">
         <v>0.8511932476363696</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="55" spans="1:43">
       <c r="A55" s="1">
-        <v>44197</v>
+        <v>44242</v>
       </c>
       <c r="Z55">
         <v>0.7478828866155461</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="56" spans="1:43">
       <c r="A56" s="1">
-        <v>44287</v>
+        <v>44331</v>
       </c>
       <c r="AA56">
         <v>0.6266756656588237</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="57" spans="1:43">
       <c r="A57" s="1">
-        <v>44378</v>
+        <v>44423</v>
       </c>
       <c r="AB57">
         <v>0.7922823033349418</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="58" spans="1:43">
       <c r="A58" s="1">
-        <v>44470</v>
+        <v>44515</v>
       </c>
       <c r="AC58">
         <v>0.6003967150651991</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="59" spans="1:43">
       <c r="A59" s="1">
-        <v>44562</v>
+        <v>44607</v>
       </c>
       <c r="AD59">
         <v>0.6615163053216137</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="60" spans="1:43">
       <c r="A60" s="1">
-        <v>44652</v>
+        <v>44696</v>
       </c>
       <c r="AE60">
         <v>0.5891663315917893</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="61" spans="1:43">
       <c r="A61" s="1">
-        <v>44743</v>
+        <v>44788</v>
       </c>
       <c r="AF61">
         <v>0.4738301286064763</v>
@@ -2050,7 +2050,7 @@
     </row>
     <row r="62" spans="1:43">
       <c r="A62" s="1">
-        <v>44835</v>
+        <v>44880</v>
       </c>
       <c r="AG62">
         <v>0.3266080168806442</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="63" spans="1:43">
       <c r="A63" s="1">
-        <v>44927</v>
+        <v>44972</v>
       </c>
       <c r="AH63">
         <v>0.5958099999658305</v>

--- a/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_EXPORT_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_EXPORT_AR2_50_9.xlsx
@@ -538,34 +538,34 @@
         <v>25614</v>
       </c>
       <c r="AR2">
-        <v>0.9748449066617448</v>
+        <v>1.195948320110379</v>
       </c>
       <c r="AS2">
-        <v>1.070060105724888</v>
+        <v>1.278787676587202</v>
       </c>
       <c r="AT2">
-        <v>1.326075861298633</v>
+        <v>1.330980552634881</v>
       </c>
       <c r="AU2">
-        <v>1.166958449261093</v>
+        <v>1.471923595658225</v>
       </c>
       <c r="AV2">
-        <v>0.1826440411112302</v>
+        <v>0.708908483274529</v>
       </c>
       <c r="AW2">
-        <v>0.9145765825663248</v>
+        <v>0.6437423559602015</v>
       </c>
       <c r="AX2">
-        <v>1.062548200217444</v>
+        <v>1.324670375991641</v>
       </c>
       <c r="AY2">
-        <v>1.308239954363243</v>
+        <v>1.782513771281655</v>
       </c>
       <c r="AZ2">
-        <v>0.1962551727069285</v>
+        <v>0.4093010573960839</v>
       </c>
       <c r="BA2">
-        <v>0.7321645956120693</v>
+        <v>0.2762574804029987</v>
       </c>
     </row>
     <row r="3" spans="1:53">
@@ -573,34 +573,34 @@
         <v>25614</v>
       </c>
       <c r="AR3">
-        <v>0.7433456476287529</v>
+        <v>0.6082885827328689</v>
       </c>
       <c r="AS3">
-        <v>0.5635243758043578</v>
+        <v>0.8256231734524723</v>
       </c>
       <c r="AT3">
-        <v>0.6661186481884673</v>
+        <v>0.6661490175697632</v>
       </c>
       <c r="AU3">
-        <v>0.4982974857142226</v>
+        <v>0.7164244169564959</v>
       </c>
       <c r="AV3">
-        <v>0.5137955098538478</v>
+        <v>0.4479500846790414</v>
       </c>
       <c r="AW3">
-        <v>0.5748940587305644</v>
+        <v>0.6747650011195335</v>
       </c>
       <c r="AX3">
-        <v>0.418355265579842</v>
+        <v>0.7532331891583695</v>
       </c>
       <c r="AY3">
-        <v>0.4542899577731945</v>
+        <v>0.6591004963448737</v>
       </c>
       <c r="AZ3">
-        <v>0.7343798725577317</v>
+        <v>-0.008667462938329096</v>
       </c>
       <c r="BA3">
-        <v>0.4881140622521925</v>
+        <v>0.653469050374992</v>
       </c>
     </row>
     <row r="4" spans="1:53">
@@ -608,34 +608,34 @@
         <v>25614</v>
       </c>
       <c r="AR4">
-        <v>0.6137234450023074</v>
+        <v>0.6393793612303481</v>
       </c>
       <c r="AS4">
-        <v>0.5834552221121716</v>
+        <v>0.5074882600626084</v>
       </c>
       <c r="AT4">
-        <v>0.421834197312482</v>
+        <v>0.4646405082836394</v>
       </c>
       <c r="AU4">
-        <v>0.4330602983888652</v>
+        <v>0.3696213192622342</v>
       </c>
       <c r="AV4">
-        <v>0.6819592255576238</v>
+        <v>0.6007453637909086</v>
       </c>
       <c r="AW4">
-        <v>0.4534033643776628</v>
+        <v>0.5121263647596965</v>
       </c>
       <c r="AX4">
-        <v>0.4831087361243788</v>
+        <v>0.2977653677344503</v>
       </c>
       <c r="AY4">
-        <v>0.3350350293333043</v>
+        <v>0.2220858510284355</v>
       </c>
       <c r="AZ4">
-        <v>0.4725318662996135</v>
+        <v>0.6795396362526511</v>
       </c>
       <c r="BA4">
-        <v>0.416227178466438</v>
+        <v>0.4645955947223424</v>
       </c>
     </row>
     <row r="5" spans="1:53">
@@ -643,34 +643,34 @@
         <v>25614</v>
       </c>
       <c r="AR5">
-        <v>0.7006850147984314</v>
+        <v>0.7477540152408166</v>
       </c>
       <c r="AS5">
-        <v>0.6771334796070231</v>
+        <v>0.69652216163249</v>
       </c>
       <c r="AT5">
-        <v>0.6203272494163909</v>
+        <v>0.6559994962826954</v>
       </c>
       <c r="AU5">
-        <v>0.5761105230474077</v>
+        <v>0.6156624467538243</v>
       </c>
       <c r="AV5">
-        <v>0.5656907608279305</v>
+        <v>0.6044948002015005</v>
       </c>
       <c r="AW5">
-        <v>0.5570478358609592</v>
+        <v>0.5562605270577222</v>
       </c>
       <c r="AX5">
-        <v>0.5883995209464885</v>
+        <v>0.5514564795224823</v>
       </c>
       <c r="AY5">
-        <v>0.5241823680742711</v>
+        <v>0.5662051322825263</v>
       </c>
       <c r="AZ5">
-        <v>0.4466086501502914</v>
+        <v>0.5560926322266252</v>
       </c>
       <c r="BA5">
-        <v>0.4843871171042253</v>
+        <v>0.4486872193918407</v>
       </c>
     </row>
     <row r="6" spans="1:53">
@@ -678,34 +678,34 @@
         <v>25614</v>
       </c>
       <c r="AR6">
-        <v>0.6987924154517784</v>
+        <v>0.7070259030706438</v>
       </c>
       <c r="AS6">
-        <v>0.6438372641853539</v>
+        <v>0.6989307411658648</v>
       </c>
       <c r="AT6">
-        <v>0.6064506594917012</v>
+        <v>0.6363148098657458</v>
       </c>
       <c r="AU6">
-        <v>0.5458509454676123</v>
+        <v>0.6064917063157778</v>
       </c>
       <c r="AV6">
-        <v>0.5685979650228108</v>
+        <v>0.5737547051207623</v>
       </c>
       <c r="AW6">
-        <v>0.5487220333963978</v>
+        <v>0.57401942048054</v>
       </c>
       <c r="AX6">
-        <v>0.5438219319055754</v>
+        <v>0.5630328900675318</v>
       </c>
       <c r="AY6">
-        <v>0.491697971889008</v>
+        <v>0.5479626999706629</v>
       </c>
       <c r="AZ6">
-        <v>0.5055021509716097</v>
+        <v>0.4561020311619363</v>
       </c>
       <c r="BA6">
-        <v>0.4779106847895432</v>
+        <v>0.4894682531606569</v>
       </c>
     </row>
     <row r="7" spans="1:53">
@@ -713,34 +713,34 @@
         <v>25614</v>
       </c>
       <c r="AR7">
-        <v>0.6821642874300602</v>
+        <v>0.698170579619086</v>
       </c>
       <c r="AS7">
-        <v>0.6357941168017889</v>
+        <v>0.6612476143551336</v>
       </c>
       <c r="AT7">
-        <v>0.5731592853053975</v>
+        <v>0.6051427484744293</v>
       </c>
       <c r="AU7">
-        <v>0.5283322406609715</v>
+        <v>0.5631614608169513</v>
       </c>
       <c r="AV7">
-        <v>0.5903895594007339</v>
+        <v>0.5824420808321719</v>
       </c>
       <c r="AW7">
-        <v>0.531107198758026</v>
+        <v>0.5600376426934187</v>
       </c>
       <c r="AX7">
-        <v>0.536948772693228</v>
+        <v>0.5093297360191721</v>
       </c>
       <c r="AY7">
-        <v>0.4666589142023442</v>
+        <v>0.4875556369960538</v>
       </c>
       <c r="AZ7">
-        <v>0.4927831013731888</v>
+        <v>0.5107186235498089</v>
       </c>
       <c r="BA7">
-        <v>0.4667671787447997</v>
+        <v>0.4803919790589644</v>
       </c>
     </row>
     <row r="8" spans="1:53">
@@ -748,34 +748,34 @@
         <v>25614</v>
       </c>
       <c r="AR8">
-        <v>0.6878114240115052</v>
+        <v>0.7091835808489509</v>
       </c>
       <c r="AS8">
-        <v>0.6448837645468408</v>
+        <v>0.6726839995257508</v>
       </c>
       <c r="AT8">
-        <v>0.5858451132172061</v>
+        <v>0.6185654562506112</v>
       </c>
       <c r="AU8">
-        <v>0.5391164611701116</v>
+        <v>0.5779365426171621</v>
       </c>
       <c r="AV8">
-        <v>0.5831281049443066</v>
+        <v>0.5857351915404165</v>
       </c>
       <c r="AW8">
-        <v>0.538164685408153</v>
+        <v>0.5609219017179896</v>
       </c>
       <c r="AX8">
-        <v>0.5476871202103092</v>
+        <v>0.5236421000772473</v>
       </c>
       <c r="AY8">
-        <v>0.4797218127965716</v>
+        <v>0.5089159878399865</v>
       </c>
       <c r="AZ8">
-        <v>0.4851356280152934</v>
+        <v>0.5142299582889694</v>
       </c>
       <c r="BA8">
-        <v>0.4713211703370155</v>
+        <v>0.4753028363264717</v>
       </c>
     </row>
     <row r="9" spans="1:53">
@@ -783,34 +783,34 @@
         <v>25614</v>
       </c>
       <c r="AR9">
-        <v>0.6893151634818988</v>
+        <v>0.7074627173597021</v>
       </c>
       <c r="AS9">
-        <v>0.6436212175287988</v>
+        <v>0.6764306816894236</v>
       </c>
       <c r="AT9">
-        <v>0.5882970464511882</v>
+        <v>0.620499408931916</v>
       </c>
       <c r="AU9">
-        <v>0.5391671780062619</v>
+        <v>0.58160181517123</v>
       </c>
       <c r="AV9">
-        <v>0.5811071086399591</v>
+        <v>0.5830442566409705</v>
       </c>
       <c r="AW9">
-        <v>0.5394170899873624</v>
+        <v>0.563345259375758</v>
       </c>
       <c r="AX9">
-        <v>0.5457554723128879</v>
+        <v>0.5298289394431436</v>
       </c>
       <c r="AY9">
-        <v>0.4805286324840672</v>
+        <v>0.5141476936204041</v>
       </c>
       <c r="AZ9">
-        <v>0.4899244120145829</v>
+        <v>0.5022977547948436</v>
       </c>
       <c r="BA9">
-        <v>0.4721041443953868</v>
+        <v>0.4785471145016106</v>
       </c>
     </row>
     <row r="10" spans="1:53">
@@ -818,34 +818,34 @@
         <v>25614</v>
       </c>
       <c r="AR10">
-        <v>0.6877196108525677</v>
+        <v>0.7057937641798477</v>
       </c>
       <c r="AS10">
-        <v>0.642223834320804</v>
+        <v>0.6730130798994211</v>
       </c>
       <c r="AT10">
-        <v>0.5851599376891335</v>
+        <v>0.617292794352683</v>
       </c>
       <c r="AU10">
-        <v>0.5371564044732255</v>
+        <v>0.5777293446192368</v>
       </c>
       <c r="AV10">
-        <v>0.5831446990502414</v>
+        <v>0.5832305231215543</v>
       </c>
       <c r="AW10">
-        <v>0.5376561776635695</v>
+        <v>0.562428028706191</v>
       </c>
       <c r="AX10">
-        <v>0.5442594653172439</v>
+        <v>0.5250887155187665</v>
       </c>
       <c r="AY10">
-        <v>0.4779264207420414</v>
+        <v>0.5085152142273243</v>
       </c>
       <c r="AZ10">
-        <v>0.4899706055161135</v>
+        <v>0.5051820558582083</v>
       </c>
       <c r="BA10">
-        <v>0.4709982649575661</v>
+        <v>0.4785549811542237</v>
       </c>
     </row>
     <row r="11" spans="1:53">
@@ -853,34 +853,34 @@
         <v>25614</v>
       </c>
       <c r="AR11">
-        <v>0.6879275937719207</v>
+        <v>0.7066709318826764</v>
       </c>
       <c r="AS11">
-        <v>0.6429109245870717</v>
+        <v>0.6733611462260575</v>
       </c>
       <c r="AT11">
-        <v>0.5856453306811458</v>
+        <v>0.6179033439171985</v>
       </c>
       <c r="AU11">
-        <v>0.5377420632424389</v>
+        <v>0.5782096066605079</v>
       </c>
       <c r="AV11">
-        <v>0.5829130724141878</v>
+        <v>0.5836946369398198</v>
       </c>
       <c r="AW11">
-        <v>0.5379557096812668</v>
+        <v>0.562243416294934</v>
       </c>
       <c r="AX11">
-        <v>0.5450891007857038</v>
+        <v>0.5253315097368778</v>
       </c>
       <c r="AY11">
-        <v>0.478524694739065</v>
+        <v>0.509181197443114</v>
       </c>
       <c r="AZ11">
-        <v>0.4890226841441717</v>
+        <v>0.5066922660046868</v>
       </c>
       <c r="BA11">
-        <v>0.4711768491993803</v>
+        <v>0.4779333146619165</v>
       </c>
     </row>
     <row r="12" spans="1:53">
@@ -1765,7 +1765,7 @@
         <v>0.1458974169190711</v>
       </c>
       <c r="AG53">
-        <v>-1.363087025057079</v>
+        <v>-16.20527914676213</v>
       </c>
     </row>
     <row r="54" spans="1:43">
@@ -1797,10 +1797,10 @@
         <v>0.6361785257419179</v>
       </c>
       <c r="AG54">
-        <v>0.9555169986974928</v>
+        <v>-8.818172192972474</v>
       </c>
       <c r="AH54">
-        <v>-1.980716282386966</v>
+        <v>-6.056727466208425</v>
       </c>
     </row>
     <row r="55" spans="1:43">
@@ -1829,13 +1829,13 @@
         <v>0.628032846347076</v>
       </c>
       <c r="AG55">
-        <v>0.212514072757355</v>
+        <v>-3.687714751839695</v>
       </c>
       <c r="AH55">
-        <v>0.6544220287710311</v>
+        <v>3.727754767560545</v>
       </c>
       <c r="AI55">
-        <v>0.3294399676824808</v>
+        <v>-2.819403143041533</v>
       </c>
     </row>
     <row r="56" spans="1:43">
@@ -1861,16 +1861,16 @@
         <v>0.5291456309467375</v>
       </c>
       <c r="AG56">
-        <v>0.3610475960955798</v>
+        <v>-1.177128061853984</v>
       </c>
       <c r="AH56">
-        <v>0.9220447140612602</v>
+        <v>-1.080904416124471</v>
       </c>
       <c r="AI56">
-        <v>0.8910364800990814</v>
+        <v>0.2988449710406901</v>
       </c>
       <c r="AJ56">
-        <v>0.8000199227110611</v>
+        <v>0.3472727457297161</v>
       </c>
     </row>
     <row r="57" spans="1:43">
@@ -1893,19 +1893,19 @@
         <v>0.4750775219338624</v>
       </c>
       <c r="AG57">
-        <v>0.3194340843600297</v>
+        <v>-0.3016665836970013</v>
       </c>
       <c r="AH57">
-        <v>0.5439563036043625</v>
+        <v>1.073045824072973</v>
       </c>
       <c r="AI57">
-        <v>0.9464501724362321</v>
+        <v>1.23099185794045</v>
       </c>
       <c r="AJ57">
-        <v>0.9901470627966625</v>
+        <v>0.8847565136471847</v>
       </c>
       <c r="AK57">
-        <v>0.8920614146566147</v>
+        <v>0.9754652692541175</v>
       </c>
     </row>
     <row r="58" spans="1:43">
@@ -1925,22 +1925,22 @@
         <v>0.4636789921176537</v>
       </c>
       <c r="AG58">
-        <v>0.3285495135980861</v>
+        <v>-0.1644908399040064</v>
       </c>
       <c r="AH58">
-        <v>0.5601047640355946</v>
+        <v>0.06594662426302787</v>
       </c>
       <c r="AI58">
-        <v>0.8763834830220033</v>
+        <v>0.5919682999342559</v>
       </c>
       <c r="AJ58">
-        <v>0.9855334765089794</v>
+        <v>0.9416993588413686</v>
       </c>
       <c r="AK58">
-        <v>0.8897383854110168</v>
+        <v>1.008570310649051</v>
       </c>
       <c r="AL58">
-        <v>1.312384916275544</v>
+        <v>1.465131654487012</v>
       </c>
     </row>
     <row r="59" spans="1:43">
@@ -1957,25 +1957,25 @@
         <v>0.4676659372597918</v>
       </c>
       <c r="AG59">
-        <v>0.3261656381630914</v>
+        <v>-0.2553092176993484</v>
       </c>
       <c r="AH59">
-        <v>0.6070110079409494</v>
+        <v>0.5274558102601684</v>
       </c>
       <c r="AI59">
-        <v>0.8832360572259953</v>
+        <v>0.5004723102099922</v>
       </c>
       <c r="AJ59">
-        <v>0.9575917120996733</v>
+        <v>0.8757623917096397</v>
       </c>
       <c r="AK59">
-        <v>0.9808053852431661</v>
+        <v>0.9286579488357802</v>
       </c>
       <c r="AL59">
-        <v>0.84913601648691</v>
+        <v>1.088025989357783</v>
       </c>
       <c r="AM59">
-        <v>1.120795806652628</v>
+        <v>0.1353661358179204</v>
       </c>
     </row>
     <row r="60" spans="1:43">
@@ -1989,28 +1989,28 @@
         <v>0.472101510872129</v>
       </c>
       <c r="AG60">
-        <v>0.3267136935292975</v>
+        <v>-0.3621747554517092</v>
       </c>
       <c r="AH60">
-        <v>0.598601450608882</v>
+        <v>0.3139772564172091</v>
       </c>
       <c r="AI60">
-        <v>0.8894689264023041</v>
+        <v>0.6206328522295294</v>
       </c>
       <c r="AJ60">
-        <v>0.9654427735935245</v>
+        <v>0.8819280833314919</v>
       </c>
       <c r="AK60">
-        <v>0.9575186497989961</v>
+        <v>0.9440366954996671</v>
       </c>
       <c r="AL60">
-        <v>0.8181465221165609</v>
+        <v>0.7831680998188</v>
       </c>
       <c r="AM60">
-        <v>1.316356980451013</v>
+        <v>0.6450169941323963</v>
       </c>
       <c r="AN60">
-        <v>1.189540212432646</v>
+        <v>1.281224837911668</v>
       </c>
     </row>
     <row r="61" spans="1:43">
@@ -2021,31 +2021,31 @@
         <v>0.4738301286064763</v>
       </c>
       <c r="AG61">
-        <v>0.326575402176002</v>
+        <v>-0.4291589882535398</v>
       </c>
       <c r="AH61">
-        <v>0.5936444211339392</v>
+        <v>0.4122943060388771</v>
       </c>
       <c r="AI61">
-        <v>0.8876012633304675</v>
+        <v>0.6233842986304722</v>
       </c>
       <c r="AJ61">
-        <v>0.9677151283174504</v>
+        <v>0.8876138617829474</v>
       </c>
       <c r="AK61">
-        <v>0.948824596944899</v>
+        <v>0.9531120262228678</v>
       </c>
       <c r="AL61">
-        <v>0.9007327813113941</v>
+        <v>0.9244038714112716</v>
       </c>
       <c r="AM61">
-        <v>0.7704201936512853</v>
+        <v>1.198470738147211</v>
       </c>
       <c r="AN61">
-        <v>0.6274155311250403</v>
+        <v>1.245324055907913</v>
       </c>
       <c r="AO61">
-        <v>1.041073095222798</v>
+        <v>1.220727415386473</v>
       </c>
     </row>
     <row r="62" spans="1:43">
@@ -2053,34 +2053,34 @@
         <v>44880</v>
       </c>
       <c r="AG62">
-        <v>0.3266080168806442</v>
+        <v>-0.4595105377516747</v>
       </c>
       <c r="AH62">
-        <v>0.595403256457044</v>
+        <v>0.3669221414647753</v>
       </c>
       <c r="AI62">
-        <v>0.887276096853304</v>
+        <v>0.6023571564355976</v>
       </c>
       <c r="AJ62">
-        <v>0.9659315797611444</v>
+        <v>0.8859378540407596</v>
       </c>
       <c r="AK62">
-        <v>0.9548540734785556</v>
+        <v>0.9482335735283689</v>
       </c>
       <c r="AL62">
-        <v>0.8841817261668099</v>
+        <v>0.9379172283027728</v>
       </c>
       <c r="AM62">
-        <v>0.890888140927582</v>
+        <v>0.9781509574491528</v>
       </c>
       <c r="AN62">
-        <v>0.78147766172392</v>
+        <v>0.7317538351844347</v>
       </c>
       <c r="AO62">
-        <v>0.7867303177724767</v>
+        <v>0.7814731312078008</v>
       </c>
       <c r="AP62">
-        <v>0.8809894144637853</v>
+        <v>0.4928654707313392</v>
       </c>
     </row>
     <row r="63" spans="1:43">
@@ -2088,34 +2088,34 @@
         <v>44972</v>
       </c>
       <c r="AH63">
-        <v>0.5958099999658305</v>
+        <v>0.3878409298910455</v>
       </c>
       <c r="AI63">
-        <v>0.8875347884375812</v>
+        <v>0.6041630745355816</v>
       </c>
       <c r="AJ63">
-        <v>0.9660395616570239</v>
+        <v>0.8856566752239686</v>
       </c>
       <c r="AK63">
-        <v>0.9546950488529665</v>
+        <v>0.9480179794784256</v>
       </c>
       <c r="AL63">
-        <v>0.8752150260107832</v>
+        <v>0.9111583302266211</v>
       </c>
       <c r="AM63">
-        <v>0.9429945917971275</v>
+        <v>0.9540877189177502</v>
       </c>
       <c r="AN63">
-        <v>0.8298096839079803</v>
+        <v>0.8794642805373022</v>
       </c>
       <c r="AO63">
-        <v>0.7025467372957435</v>
+        <v>0.7505592752363462</v>
       </c>
       <c r="AP63">
-        <v>0.9474422321700283</v>
+        <v>0.677851552141815</v>
       </c>
       <c r="AQ63">
-        <v>1.457086456290074</v>
+        <v>1.062259070277484</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_EXPORT_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/3_QoQ_Component_Forecast_Tables/naive_qoq_forecasts_EXPORT_AR2_50_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV72"/>
+  <dimension ref="A1:AW73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:49">
       <c r="B1" s="1">
         <v>40269</v>
       </c>
@@ -517,8 +517,11 @@
       <c r="AV1" s="1">
         <v>45839</v>
       </c>
-    </row>
-    <row r="2" spans="1:48">
+      <c r="AW1" s="1">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49">
       <c r="A2" s="1">
         <v>40313</v>
       </c>
@@ -526,7 +529,7 @@
         <v>1.543216876039161</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:49">
       <c r="A3" s="1">
         <v>40405</v>
       </c>
@@ -534,7 +537,7 @@
         <v>0.8904929523772389</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:49">
       <c r="A4" s="1">
         <v>40497</v>
       </c>
@@ -545,7 +548,7 @@
         <v>1.026563825920965</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:49">
       <c r="A5" s="1">
         <v>40589</v>
       </c>
@@ -556,7 +559,7 @@
         <v>0.9288483575751432</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:49">
       <c r="A6" s="1">
         <v>40678</v>
       </c>
@@ -570,7 +573,7 @@
         <v>1.759417803805985</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:49">
       <c r="A7" s="1">
         <v>40770</v>
       </c>
@@ -584,7 +587,7 @@
         <v>1.401229926853548</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:49">
       <c r="A8" s="1">
         <v>40862</v>
       </c>
@@ -601,7 +604,7 @@
         <v>1.749976813532968</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:49">
       <c r="A9" s="1">
         <v>40954</v>
       </c>
@@ -618,7 +621,7 @@
         <v>1.353236822983069</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:49">
       <c r="A10" s="1">
         <v>41044</v>
       </c>
@@ -638,7 +641,7 @@
         <v>1.725247556061849</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:49">
       <c r="A11" s="1">
         <v>41136</v>
       </c>
@@ -658,7 +661,7 @@
         <v>1.389909046354539</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:49">
       <c r="A12" s="1">
         <v>41228</v>
       </c>
@@ -678,7 +681,7 @@
         <v>1.119387711966875</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:49">
       <c r="A13" s="1">
         <v>41320</v>
       </c>
@@ -698,7 +701,7 @@
         <v>1.108034762323255</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:49">
       <c r="A14" s="1">
         <v>41409</v>
       </c>
@@ -718,7 +721,7 @@
         <v>-0.1034072737844283</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:49">
       <c r="A15" s="1">
         <v>41501</v>
       </c>
@@ -738,7 +741,7 @@
         <v>0.6888488305908862</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:49">
       <c r="A16" s="1">
         <v>41593</v>
       </c>
@@ -1578,7 +1581,7 @@
         <v>1.465131654487012</v>
       </c>
     </row>
-    <row r="49" spans="1:48">
+    <row r="49" spans="1:49">
       <c r="A49" s="1">
         <v>44607</v>
       </c>
@@ -1613,7 +1616,7 @@
         <v>0.1353661358179204</v>
       </c>
     </row>
-    <row r="50" spans="1:48">
+    <row r="50" spans="1:49">
       <c r="A50" s="1">
         <v>44696</v>
       </c>
@@ -1648,7 +1651,7 @@
         <v>1.281224837911668</v>
       </c>
     </row>
-    <row r="51" spans="1:48">
+    <row r="51" spans="1:49">
       <c r="A51" s="1">
         <v>44788</v>
       </c>
@@ -1683,7 +1686,7 @@
         <v>1.220727415386473</v>
       </c>
     </row>
-    <row r="52" spans="1:48">
+    <row r="52" spans="1:49">
       <c r="A52" s="1">
         <v>44880</v>
       </c>
@@ -1718,7 +1721,7 @@
         <v>0.4928654707313392</v>
       </c>
     </row>
-    <row r="53" spans="1:48">
+    <row r="53" spans="1:49">
       <c r="A53" s="1">
         <v>44972</v>
       </c>
@@ -1753,7 +1756,7 @@
         <v>1.062259070277484</v>
       </c>
     </row>
-    <row r="54" spans="1:48">
+    <row r="54" spans="1:49">
       <c r="A54" s="1">
         <v>45061</v>
       </c>
@@ -1788,7 +1791,7 @@
         <v>1.195948320110379</v>
       </c>
     </row>
-    <row r="55" spans="1:48">
+    <row r="55" spans="1:49">
       <c r="A55" s="1">
         <v>45153</v>
       </c>
@@ -1823,7 +1826,7 @@
         <v>1.278787676587202</v>
       </c>
     </row>
-    <row r="56" spans="1:48">
+    <row r="56" spans="1:49">
       <c r="A56" s="1">
         <v>45245</v>
       </c>
@@ -1858,7 +1861,7 @@
         <v>1.330980552634881</v>
       </c>
     </row>
-    <row r="57" spans="1:48">
+    <row r="57" spans="1:49">
       <c r="A57" s="1">
         <v>45337</v>
       </c>
@@ -1893,7 +1896,7 @@
         <v>1.471923595658225</v>
       </c>
     </row>
-    <row r="58" spans="1:48">
+    <row r="58" spans="1:49">
       <c r="A58" s="1">
         <v>45427</v>
       </c>
@@ -1928,7 +1931,7 @@
         <v>0.708908483274529</v>
       </c>
     </row>
-    <row r="59" spans="1:48">
+    <row r="59" spans="1:49">
       <c r="A59" s="1">
         <v>45519</v>
       </c>
@@ -1963,7 +1966,7 @@
         <v>0.6437423559602015</v>
       </c>
     </row>
-    <row r="60" spans="1:48">
+    <row r="60" spans="1:49">
       <c r="A60" s="1">
         <v>45611</v>
       </c>
@@ -1998,7 +2001,7 @@
         <v>1.324670375991641</v>
       </c>
     </row>
-    <row r="61" spans="1:48">
+    <row r="61" spans="1:49">
       <c r="A61" s="1">
         <v>45703</v>
       </c>
@@ -2033,7 +2036,7 @@
         <v>1.782513771281655</v>
       </c>
     </row>
-    <row r="62" spans="1:48">
+    <row r="62" spans="1:49">
       <c r="A62" s="1">
         <v>45792</v>
       </c>
@@ -2068,7 +2071,7 @@
         <v>0.4093010573960839</v>
       </c>
     </row>
-    <row r="63" spans="1:48">
+    <row r="63" spans="1:49">
       <c r="A63" s="1">
         <v>45884</v>
       </c>
@@ -2103,7 +2106,7 @@
         <v>0.2762574804029987</v>
       </c>
     </row>
-    <row r="64" spans="1:48">
+    <row r="64" spans="1:49">
       <c r="A64" s="1">
         <v>45976</v>
       </c>
@@ -2134,8 +2137,11 @@
       <c r="AV64">
         <v>0.653469050374992</v>
       </c>
-    </row>
-    <row r="65" spans="1:48">
+      <c r="AW64">
+        <v>0.8547640426299213</v>
+      </c>
+    </row>
+    <row r="65" spans="1:49">
       <c r="A65" s="1">
         <v>46068</v>
       </c>
@@ -2163,8 +2169,11 @@
       <c r="AV65">
         <v>0.4645955947223424</v>
       </c>
-    </row>
-    <row r="66" spans="1:48">
+      <c r="AW65">
+        <v>0.5836696676700008</v>
+      </c>
+    </row>
+    <row r="66" spans="1:49">
       <c r="A66" s="1">
         <v>46157</v>
       </c>
@@ -2189,8 +2198,11 @@
       <c r="AV66">
         <v>0.4486872193918407</v>
       </c>
-    </row>
-    <row r="67" spans="1:48">
+      <c r="AW66">
+        <v>0.3581087741383818</v>
+      </c>
+    </row>
+    <row r="67" spans="1:49">
       <c r="A67" s="1">
         <v>46249</v>
       </c>
@@ -2212,8 +2224,11 @@
       <c r="AV67">
         <v>0.4894682531606569</v>
       </c>
-    </row>
-    <row r="68" spans="1:48">
+      <c r="AW67">
+        <v>0.4777118888332296</v>
+      </c>
+    </row>
+    <row r="68" spans="1:49">
       <c r="A68" s="1">
         <v>46341</v>
       </c>
@@ -2232,8 +2247,11 @@
       <c r="AV68">
         <v>0.4803919790589644</v>
       </c>
-    </row>
-    <row r="69" spans="1:48">
+      <c r="AW68">
+        <v>0.486068368610706</v>
+      </c>
+    </row>
+    <row r="69" spans="1:49">
       <c r="A69" s="1">
         <v>46433</v>
       </c>
@@ -2249,8 +2267,11 @@
       <c r="AV69">
         <v>0.4753028363264717</v>
       </c>
-    </row>
-    <row r="70" spans="1:48">
+      <c r="AW69">
+        <v>0.4603442167010163</v>
+      </c>
+    </row>
+    <row r="70" spans="1:49">
       <c r="A70" s="1">
         <v>46522</v>
       </c>
@@ -2263,8 +2284,11 @@
       <c r="AV70">
         <v>0.4785471145016106</v>
       </c>
-    </row>
-    <row r="71" spans="1:48">
+      <c r="AW70">
+        <v>0.4663515018921451</v>
+      </c>
+    </row>
+    <row r="71" spans="1:49">
       <c r="A71" s="1">
         <v>46614</v>
       </c>
@@ -2274,13 +2298,27 @@
       <c r="AV71">
         <v>0.4785549811542237</v>
       </c>
-    </row>
-    <row r="72" spans="1:48">
+      <c r="AW71">
+        <v>0.4695689069109032</v>
+      </c>
+    </row>
+    <row r="72" spans="1:49">
       <c r="A72" s="1">
         <v>46706</v>
       </c>
       <c r="AV72">
         <v>0.4779333146619165</v>
+      </c>
+      <c r="AW72">
+        <v>0.4674468967903231</v>
+      </c>
+    </row>
+    <row r="73" spans="1:49">
+      <c r="A73" s="1">
+        <v>46798</v>
+      </c>
+      <c r="AW73">
+        <v>0.4674511079923597</v>
       </c>
     </row>
   </sheetData>
